--- a/ColorQuantization.xlsx
+++ b/ColorQuantization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Stuff\Documents\Miskolci Egyetem\VI. félév\OpenCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1BE265-7B96-4332-835E-A50565AAC32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85925819-30E5-470F-A7B4-68D09D0E0747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FB59EDD6-856D-43B8-AFFC-3B00EFBC532F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{FB59EDD6-856D-43B8-AFFC-3B00EFBC532F}"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSize" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Sequential</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Iterations:</t>
   </si>
   <si>
-    <t>0.8 - 1.2</t>
-  </si>
-  <si>
     <t>Blank HD img time:</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
   </si>
   <si>
     <t>Parallel</t>
-  </si>
-  <si>
-    <t>10.0 - 12.0</t>
   </si>
   <si>
     <t>16x16</t>
@@ -93,6 +87,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Speedup</t>
   </si>
 </sst>
 </file>
@@ -140,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -149,10 +146,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -196,7 +197,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time (s)</c:v>
+            <c:v>Sequential</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -235,24 +236,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ImageSize!$B$13:$B$17</c:f>
+              <c:f>ImageSize!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.06</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.21</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -260,7 +261,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-368B-4CE8-9772-518BFF3978D1}"/>
+              <c16:uniqueId val="{00000001-058D-43B2-BFB9-E57ACACA3840}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -268,7 +269,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Time2</c:v>
+            <c:v>Parallel</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -282,26 +283,49 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ImageSize!$A$13:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16x16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64x64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1920x1080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3840x2160</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ImageSize!$B$4:$B$8</c:f>
+              <c:f>ImageSize!$B$13:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.4</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>5.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,7 +333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-84A3-4413-B3D3-A9A57CF4835D}"/>
+              <c16:uniqueId val="{00000002-058D-43B2-BFB9-E57ACACA3840}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -332,6 +356,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Quantized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t> image resolution</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -397,6 +481,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -440,6 +579,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -508,7 +678,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time</c:v>
+            <c:v>Sequential</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -524,10 +694,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Iterations!$A$4:$A$8</c:f>
+              <c:f>Iterations!$A$13:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -542,16 +712,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Iterations!$B$4:$B$8</c:f>
+              <c:f>Iterations!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
@@ -566,6 +739,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,7 +757,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Time2</c:v>
+            <c:v>Parallel</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -595,12 +771,39 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Iterations!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Iterations!$B$13:$B$17</c:f>
+              <c:f>Iterations!$B$13:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -615,6 +818,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,6 +851,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t> of iterations in K-means</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -710,6 +976,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -753,6 +1074,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -821,7 +1173,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time</c:v>
+            <c:v>Sequential</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -894,7 +1246,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Time2</c:v>
+            <c:v>Parallel</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -988,6 +1340,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t> of centroids (averaged colors)</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1053,6 +1465,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1096,6 +1563,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2853,16 +3351,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17144</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32384</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>449579</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>464819</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2894,16 +3392,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>35241</xdr:rowOff>
+      <xdr:rowOff>20001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>245745</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>18763</xdr:rowOff>
+      <xdr:rowOff>3523</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3231,7 +3729,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3243,25 +3741,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
+      <c r="D2" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3269,69 +3767,69 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
         <v>2E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
         <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
         <v>12.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3339,50 +3837,73 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="C13" s="6">
+        <f>B4/B13</f>
+        <v>0.11764705882352941</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
         <v>0.02</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:C17" si="0">B5/B14</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
         <v>0.16</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>11.69811320754717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>8.6372360844529759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -3390,7 +3911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -3410,10 +3931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC82247-4137-4F44-A5DE-752E4C462D3A}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3421,57 +3942,57 @@
     <col min="1" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1.38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>6.16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -3479,65 +4000,108 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="6">
+        <f>B4/B13</f>
+        <v>1.9333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:C18" si="0">B5/B14</f>
+        <v>3.4499999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>8.1052631578947363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>100</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>10.084033613445378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1000</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>14.080000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10000</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>12.714285714285715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -3545,12 +4109,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3565,10 +4129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729F8532-60EE-4468-BD71-11467B57906F}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3576,131 +4140,164 @@
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>12.72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>23.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>64</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>91.97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>256</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1024</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="6">
+        <f>B4/B13</f>
+        <v>1.9444444444444444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:C18" si="0">B5/B14</f>
+        <v>10.871794871794872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>19.430894308943088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>64</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>70.746153846153845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>256</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1024</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -3708,12 +4305,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
